--- a/exports/statistics/analysis_cortisol_features_wakeup_source.xlsx
+++ b/exports/statistics/analysis_cortisol_features_wakeup_source.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>parameter</t>
   </si>
@@ -35,6 +35,9 @@
     <t>between</t>
   </si>
   <si>
+    <t>padjust</t>
+  </si>
+  <si>
     <t>biomarker</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>cortisol</t>
   </si>
   <si>
+    <t>fdr_bh</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -62,13 +68,16 @@
     <t>cini</t>
   </si>
   <si>
+    <t>cmax</t>
+  </si>
+  <si>
     <t>max_inc</t>
   </si>
   <si>
-    <t>slope03</t>
-  </si>
-  <si>
-    <t>slope04</t>
+    <t>slopeS0S3</t>
+  </si>
+  <si>
+    <t>slopeS0S4</t>
   </si>
   <si>
     <t>Alarm</t>
@@ -499,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -523,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -531,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -539,7 +548,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -549,330 +566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0.97</v>
-      </c>
-      <c r="D3">
-        <v>0.058</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>0.959</v>
-      </c>
-      <c r="D4">
-        <v>0.017</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0.882</v>
-      </c>
-      <c r="D5">
-        <v>0.28</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.968</v>
-      </c>
-      <c r="D6">
-        <v>0.044</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>0.959</v>
-      </c>
-      <c r="D7">
-        <v>0.018</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0.973</v>
-      </c>
-      <c r="D8">
-        <v>0.91</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.949</v>
-      </c>
-      <c r="D9">
-        <v>0.003</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>0.746</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0.993</v>
-      </c>
-      <c r="D11">
-        <v>0.995</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0.947</v>
-      </c>
-      <c r="D12">
-        <v>0.002</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.001</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0.944</v>
-      </c>
-      <c r="D14">
-        <v>0.695</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0.948</v>
-      </c>
-      <c r="D15">
-        <v>0.003</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>0.959</v>
-      </c>
-      <c r="D16">
-        <v>0.016</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.638</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>0.926</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>0.981</v>
-      </c>
-      <c r="D19">
-        <v>0.35</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>0.847</v>
-      </c>
-      <c r="D20">
-        <v>0.15</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -885,65 +579,61 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>3.734</v>
+        <v>0.977</v>
       </c>
       <c r="D3">
-        <v>0.026</v>
+        <v>0.225</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>0.615</v>
+        <v>0.982</v>
       </c>
       <c r="D4">
-        <v>0.542</v>
+        <v>0.443</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5">
-        <v>0.553</v>
+        <v>0.859</v>
       </c>
       <c r="D5">
-        <v>0.577</v>
+        <v>0.258</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -954,13 +644,388 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.989</v>
+      </c>
+      <c r="D6">
+        <v>0.773</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0.986</v>
+      </c>
+      <c r="D7">
+        <v>0.647</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C8">
+        <v>0.914</v>
+      </c>
+      <c r="D8">
+        <v>0.506</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0.958</v>
+      </c>
+      <c r="D9">
+        <v>0.017</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.931</v>
+      </c>
+      <c r="D10">
+        <v>0.001</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.988</v>
+      </c>
+      <c r="D11">
+        <v>0.949</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.966</v>
+      </c>
+      <c r="D12">
+        <v>0.051</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0.986</v>
+      </c>
+      <c r="D13">
+        <v>0.668</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0.874</v>
+      </c>
+      <c r="D14">
+        <v>0.313</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.97</v>
+      </c>
+      <c r="D15">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>0.972</v>
+      </c>
+      <c r="D16">
+        <v>0.133</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0.957</v>
+      </c>
+      <c r="D17">
+        <v>0.761</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0.967</v>
+      </c>
+      <c r="D18">
+        <v>0.06</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0.963</v>
+      </c>
+      <c r="D19">
+        <v>0.046</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0.909</v>
+      </c>
+      <c r="D20">
+        <v>0.479</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.961</v>
+      </c>
+      <c r="D21">
+        <v>0.028</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0.971</v>
+      </c>
+      <c r="D22">
+        <v>0.121</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.625</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2.561</v>
+      </c>
+      <c r="D3">
+        <v>0.081</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1.014</v>
+      </c>
+      <c r="D4">
+        <v>0.365</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.112</v>
+      </c>
+      <c r="D5">
+        <v>0.894</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C6">
-        <v>0.598</v>
+        <v>1.357</v>
       </c>
       <c r="D6">
-        <v>0.551</v>
+        <v>0.261</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -968,16 +1033,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>0.665</v>
+        <v>0.389</v>
       </c>
       <c r="D7">
-        <v>0.516</v>
+        <v>0.679</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -985,18 +1050,35 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>0.655</v>
+        <v>0.534</v>
       </c>
       <c r="D8">
-        <v>0.521</v>
+        <v>0.587</v>
       </c>
       <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1.329</v>
+      </c>
+      <c r="D9">
+        <v>0.268</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1007,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,187 +1097,213 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>40.023</v>
+        <v>15.712</v>
       </c>
       <c r="F3">
-        <v>23.165</v>
+        <v>20.377</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>15.327</v>
+        <v>9.435</v>
       </c>
       <c r="F4">
-        <v>5.08</v>
+        <v>9.903</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="H4">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>13.967</v>
+        <v>8.430999999999999</v>
       </c>
       <c r="F5">
-        <v>1.745</v>
+        <v>0.896</v>
       </c>
       <c r="G5">
-        <v>0.211</v>
+        <v>0.444</v>
       </c>
       <c r="H5">
-        <v>0.023</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>14.94</v>
+        <v>9.317</v>
       </c>
       <c r="F6">
-        <v>5.159</v>
+        <v>7.779</v>
       </c>
       <c r="G6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H6">
-        <v>0.043</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>14.478</v>
+        <v>8.486000000000001</v>
       </c>
       <c r="F7">
-        <v>6.189</v>
+        <v>5.248</v>
       </c>
       <c r="G7">
-        <v>0.011</v>
+        <v>0.033</v>
       </c>
       <c r="H7">
-        <v>0.064</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>13.586</v>
+        <v>8.51</v>
       </c>
       <c r="F8">
-        <v>6.038</v>
+        <v>5.36</v>
       </c>
       <c r="G8">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="H8">
-        <v>0.076</v>
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>8.038</v>
+      </c>
+      <c r="F9">
+        <v>3.748</v>
+      </c>
+      <c r="G9">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.07099999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,75 +1321,75 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>731.412</v>
+        <v>687.253</v>
       </c>
       <c r="F3">
-        <v>964.2140000000001</v>
+        <v>952.939</v>
       </c>
       <c r="G3">
-        <v>-232.801</v>
+        <v>-265.686</v>
       </c>
       <c r="H3">
-        <v>130.931</v>
+        <v>140.416</v>
       </c>
       <c r="I3">
-        <v>-1.778</v>
+        <v>-1.892</v>
       </c>
       <c r="J3">
-        <v>0.18</v>
+        <v>0.145</v>
       </c>
       <c r="K3">
-        <v>-0.746</v>
+        <v>-0.962</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1290,31 +1398,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>731.412</v>
+        <v>687.253</v>
       </c>
       <c r="F4">
-        <v>711.6950000000001</v>
+        <v>683.487</v>
       </c>
       <c r="G4">
-        <v>19.718</v>
+        <v>3.766</v>
       </c>
       <c r="H4">
-        <v>50.019</v>
+        <v>46.539</v>
       </c>
       <c r="I4">
-        <v>0.394</v>
+        <v>0.081</v>
       </c>
       <c r="J4">
         <v>0.9</v>
       </c>
       <c r="K4">
-        <v>0.063</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1323,66 +1431,66 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>964.2140000000001</v>
+        <v>952.939</v>
       </c>
       <c r="F5">
-        <v>711.6950000000001</v>
+        <v>683.487</v>
       </c>
       <c r="G5">
-        <v>252.519</v>
+        <v>269.452</v>
       </c>
       <c r="H5">
-        <v>131.243</v>
+        <v>140.639</v>
       </c>
       <c r="I5">
-        <v>1.924</v>
+        <v>1.916</v>
       </c>
       <c r="J5">
-        <v>0.135</v>
+        <v>0.138</v>
       </c>
       <c r="K5">
-        <v>0.8090000000000001</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>320.348</v>
+        <v>281.382</v>
       </c>
       <c r="F6">
-        <v>492.461</v>
+        <v>593.429</v>
       </c>
       <c r="G6">
-        <v>-172.113</v>
+        <v>-312.047</v>
       </c>
       <c r="H6">
-        <v>137.488</v>
+        <v>136.851</v>
       </c>
       <c r="I6">
-        <v>-1.252</v>
+        <v>-2.28</v>
       </c>
       <c r="J6">
-        <v>0.426</v>
+        <v>0.062</v>
       </c>
       <c r="K6">
-        <v>-0.525</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1391,31 +1499,31 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>320.348</v>
+        <v>281.382</v>
       </c>
       <c r="F7">
-        <v>210.797</v>
+        <v>235.545</v>
       </c>
       <c r="G7">
-        <v>109.55</v>
+        <v>45.837</v>
       </c>
       <c r="H7">
-        <v>52.524</v>
+        <v>45.357</v>
       </c>
       <c r="I7">
-        <v>2.086</v>
+        <v>1.011</v>
       </c>
       <c r="J7">
-        <v>0.096</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="K7">
-        <v>0.336</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1424,66 +1532,66 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>492.461</v>
+        <v>593.429</v>
       </c>
       <c r="F8">
-        <v>210.797</v>
+        <v>235.545</v>
       </c>
       <c r="G8">
-        <v>281.664</v>
+        <v>357.884</v>
       </c>
       <c r="H8">
-        <v>137.815</v>
+        <v>137.068</v>
       </c>
       <c r="I8">
-        <v>2.044</v>
+        <v>2.611</v>
       </c>
       <c r="J8">
-        <v>0.105</v>
+        <v>0.027</v>
       </c>
       <c r="K8">
-        <v>0.859</v>
+        <v>1.329</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>6.678</v>
+        <v>6.598</v>
       </c>
       <c r="F9">
-        <v>7.723</v>
+        <v>5.782</v>
       </c>
       <c r="G9">
-        <v>-1.045</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H9">
-        <v>1.978</v>
+        <v>1.831</v>
       </c>
       <c r="I9">
-        <v>-0.529</v>
+        <v>0.445</v>
       </c>
       <c r="J9">
-        <v>0.842</v>
+        <v>0.89</v>
       </c>
       <c r="K9">
-        <v>-0.222</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1492,31 +1600,31 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>6.678</v>
+        <v>6.598</v>
       </c>
       <c r="F10">
-        <v>8.118</v>
+        <v>7.316</v>
       </c>
       <c r="G10">
-        <v>-1.441</v>
+        <v>-0.718</v>
       </c>
       <c r="H10">
-        <v>0.756</v>
+        <v>0.607</v>
       </c>
       <c r="I10">
-        <v>-1.907</v>
+        <v>-1.183</v>
       </c>
       <c r="J10">
-        <v>0.14</v>
+        <v>0.467</v>
       </c>
       <c r="K10">
-        <v>-0.307</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1525,66 +1633,66 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>7.723</v>
+        <v>5.782</v>
       </c>
       <c r="F11">
-        <v>8.118</v>
+        <v>7.316</v>
       </c>
       <c r="G11">
-        <v>-0.395</v>
+        <v>-1.533</v>
       </c>
       <c r="H11">
-        <v>1.983</v>
+        <v>1.834</v>
       </c>
       <c r="I11">
-        <v>-0.199</v>
+        <v>-0.836</v>
       </c>
       <c r="J11">
-        <v>0.9</v>
+        <v>0.667</v>
       </c>
       <c r="K11">
-        <v>-0.08400000000000001</v>
+        <v>-0.426</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>9.353</v>
+        <v>15.298</v>
       </c>
       <c r="F12">
-        <v>14.292</v>
+        <v>22.165</v>
       </c>
       <c r="G12">
-        <v>-4.94</v>
+        <v>-6.867</v>
       </c>
       <c r="H12">
-        <v>3.315</v>
+        <v>3.23</v>
       </c>
       <c r="I12">
-        <v>-1.49</v>
+        <v>-2.126</v>
       </c>
       <c r="J12">
-        <v>0.299</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K12">
-        <v>-0.625</v>
+        <v>-1.081</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1593,31 +1701,31 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>9.353</v>
+        <v>15.298</v>
       </c>
       <c r="F13">
-        <v>6.955</v>
+        <v>14.735</v>
       </c>
       <c r="G13">
-        <v>2.397</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H13">
-        <v>1.267</v>
+        <v>1.07</v>
       </c>
       <c r="I13">
-        <v>1.893</v>
+        <v>0.527</v>
       </c>
       <c r="J13">
-        <v>0.144</v>
+        <v>0.843</v>
       </c>
       <c r="K13">
-        <v>0.305</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1626,66 +1734,66 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>14.292</v>
+        <v>22.165</v>
       </c>
       <c r="F14">
-        <v>6.955</v>
+        <v>14.735</v>
       </c>
       <c r="G14">
-        <v>7.337</v>
+        <v>7.43</v>
       </c>
       <c r="H14">
-        <v>3.323</v>
+        <v>3.235</v>
       </c>
       <c r="I14">
-        <v>2.208</v>
+        <v>2.297</v>
       </c>
       <c r="J14">
-        <v>0.073</v>
+        <v>0.06</v>
       </c>
       <c r="K14">
-        <v>0.928</v>
+        <v>1.169</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>0.163</v>
+        <v>8.497</v>
       </c>
       <c r="F15">
-        <v>0.257</v>
+        <v>16.382</v>
       </c>
       <c r="G15">
-        <v>-0.094</v>
+        <v>-7.886</v>
       </c>
       <c r="H15">
-        <v>0.074</v>
+        <v>3.38</v>
       </c>
       <c r="I15">
-        <v>-1.27</v>
+        <v>-2.333</v>
       </c>
       <c r="J15">
-        <v>0.416</v>
+        <v>0.055</v>
       </c>
       <c r="K15">
-        <v>-0.533</v>
+        <v>-1.187</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1694,31 +1802,31 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>0.163</v>
+        <v>8.497</v>
       </c>
       <c r="F16">
-        <v>0.08599999999999999</v>
+        <v>7.207</v>
       </c>
       <c r="G16">
-        <v>0.077</v>
+        <v>1.289</v>
       </c>
       <c r="H16">
-        <v>0.028</v>
+        <v>1.12</v>
       </c>
       <c r="I16">
-        <v>2.722</v>
+        <v>1.151</v>
       </c>
       <c r="J16">
-        <v>0.02</v>
+        <v>0.486</v>
       </c>
       <c r="K16">
-        <v>0.438</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1727,66 +1835,66 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>0.257</v>
+        <v>16.382</v>
       </c>
       <c r="F17">
-        <v>0.08599999999999999</v>
+        <v>7.207</v>
       </c>
       <c r="G17">
-        <v>0.171</v>
+        <v>9.175000000000001</v>
       </c>
       <c r="H17">
-        <v>0.074</v>
+        <v>3.386</v>
       </c>
       <c r="I17">
-        <v>2.304</v>
+        <v>2.71</v>
       </c>
       <c r="J17">
-        <v>0.058</v>
+        <v>0.021</v>
       </c>
       <c r="K17">
-        <v>0.969</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>0.1</v>
+        <v>0.144</v>
       </c>
       <c r="F18">
-        <v>0.157</v>
+        <v>0.303</v>
       </c>
       <c r="G18">
-        <v>-0.057</v>
+        <v>-0.159</v>
       </c>
       <c r="H18">
-        <v>0.054</v>
+        <v>0.078</v>
       </c>
       <c r="I18">
-        <v>-1.045</v>
+        <v>-2.051</v>
       </c>
       <c r="J18">
-        <v>0.547</v>
+        <v>0.104</v>
       </c>
       <c r="K18">
-        <v>-0.439</v>
+        <v>-1.043</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1795,31 +1903,31 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0.144</v>
       </c>
       <c r="F19">
-        <v>0.034</v>
+        <v>0.101</v>
       </c>
       <c r="G19">
-        <v>0.066</v>
+        <v>0.042</v>
       </c>
       <c r="H19">
-        <v>0.021</v>
+        <v>0.026</v>
       </c>
       <c r="I19">
-        <v>3.163</v>
+        <v>1.649</v>
       </c>
       <c r="J19">
-        <v>0.005</v>
+        <v>0.229</v>
       </c>
       <c r="K19">
-        <v>0.509</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1828,41 +1936,143 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0.303</v>
+      </c>
+      <c r="F20">
+        <v>0.101</v>
+      </c>
+      <c r="G20">
+        <v>0.201</v>
+      </c>
+      <c r="H20">
+        <v>0.078</v>
+      </c>
+      <c r="I20">
+        <v>2.594</v>
+      </c>
+      <c r="J20">
+        <v>0.028</v>
+      </c>
+      <c r="K20">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0.157</v>
-      </c>
-      <c r="F20">
-        <v>0.034</v>
-      </c>
-      <c r="G20">
-        <v>0.122</v>
-      </c>
-      <c r="H20">
-        <v>0.054</v>
-      </c>
-      <c r="I20">
-        <v>2.249</v>
-      </c>
-      <c r="J20">
-        <v>0.066</v>
-      </c>
-      <c r="K20">
-        <v>0.945</v>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.206</v>
+      </c>
+      <c r="G21">
+        <v>-0.118</v>
+      </c>
+      <c r="H21">
+        <v>0.059</v>
+      </c>
+      <c r="I21">
+        <v>-2.019</v>
+      </c>
+      <c r="J21">
+        <v>0.112</v>
+      </c>
+      <c r="K21">
+        <v>-1.027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.045</v>
+      </c>
+      <c r="G22">
+        <v>0.043</v>
+      </c>
+      <c r="H22">
+        <v>0.019</v>
+      </c>
+      <c r="I22">
+        <v>2.202</v>
+      </c>
+      <c r="J22">
+        <v>0.075</v>
+      </c>
+      <c r="K22">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>0.206</v>
+      </c>
+      <c r="F23">
+        <v>0.045</v>
+      </c>
+      <c r="G23">
+        <v>0.161</v>
+      </c>
+      <c r="H23">
+        <v>0.059</v>
+      </c>
+      <c r="I23">
+        <v>2.744</v>
+      </c>
+      <c r="J23">
+        <v>0.019</v>
+      </c>
+      <c r="K23">
+        <v>1.397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
